--- a/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
+++ b/InputData/trans/MPNVbT/Max Perc New Veh by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\trans\MPNVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ar/trans/mpnvbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC0BE9-136B-4E6A-828F-9F9E40F3B4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B4D23A-F8CC-3A40-BA60-E728DA4F6A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2860,9 +2860,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -3104,7 +3104,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3152,18 +3152,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3173,8 +3173,9 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4506,25 +4507,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.1640625" style="15"/>
+    <col min="2" max="2" width="56.33203125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="48">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4532,462 +4536,462 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B50" s="19"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" s="20"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
         <v>58</v>
       </c>
@@ -5010,13 +5014,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -5145,7 +5149,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>0.79132952109742016</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>1.2353695258898109E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -5919,7 +5923,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -6062,13 +6066,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -6197,7 +6201,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>0.79121379676466685</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -6455,7 +6459,7 @@
         <v>5.3346659504360135E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -6971,7 +6975,7 @@
         <v>8.4902443450214804E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -7114,13 +7118,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -7636,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -7894,7 +7898,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -8023,7 +8027,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -8166,13 +8170,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -8301,7 +8305,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -8946,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -9075,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -9218,13 +9222,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -9353,7 +9357,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -9740,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -9869,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -9998,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -10270,13 +10274,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -10405,7 +10409,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -10534,7 +10538,7 @@
         <v>0.75216927859794647</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -10792,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>0.24783072140205353</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -11050,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -11179,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -11322,13 +11326,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -11457,7 +11461,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -11586,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -11715,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -11844,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -11973,7 +11977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -12231,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -12374,13 +12378,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -12509,7 +12513,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -12638,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -12767,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -12896,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -13025,7 +13029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -13283,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -13428,13 +13432,13 @@
       <selection activeCell="AG9" sqref="AG1:AG9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -13563,7 +13567,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -13692,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -13821,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -13950,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -14079,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -14208,7 +14212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -14337,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -14482,13 +14486,13 @@
       <selection activeCell="AG13" sqref="AG1:AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -14617,7 +14621,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -14746,7 +14750,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -14875,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -15004,7 +15008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -15133,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -15262,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -15391,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -15533,9 +15537,9 @@
       <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15633,27 +15637,27 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>176</v>
       </c>
@@ -15760,7 +15764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -15768,7 +15772,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -15886,7 +15890,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -15996,7 +16000,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -16106,7 +16110,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -16114,7 +16118,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -16224,7 +16228,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -16334,7 +16338,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -16444,7 +16448,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -16554,7 +16558,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -16664,7 +16668,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -16774,7 +16778,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -16884,7 +16888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -16994,7 +16998,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>220</v>
       </c>
@@ -17104,7 +17108,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -17214,7 +17218,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -17324,7 +17328,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>229</v>
       </c>
@@ -17434,7 +17438,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -17544,7 +17548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -17654,7 +17658,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -17764,7 +17768,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -17874,7 +17878,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -17984,7 +17988,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>245</v>
       </c>
@@ -17992,7 +17996,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>247</v>
       </c>
@@ -18000,7 +18004,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>184</v>
       </c>
@@ -18110,7 +18114,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -18220,7 +18224,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>253</v>
       </c>
@@ -18330,7 +18334,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>256</v>
       </c>
@@ -18338,7 +18342,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -18448,7 +18452,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>199</v>
       </c>
@@ -18558,7 +18562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -18668,7 +18672,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>205</v>
       </c>
@@ -18778,7 +18782,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -18888,7 +18892,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -18998,7 +19002,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -19108,7 +19112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -19218,7 +19222,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>220</v>
       </c>
@@ -19328,7 +19332,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -19438,7 +19442,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -19548,7 +19552,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -19658,7 +19662,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>231</v>
       </c>
@@ -19768,7 +19772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -19878,7 +19882,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>286</v>
       </c>
@@ -19988,7 +19992,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -20098,7 +20102,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -20208,7 +20212,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -20318,7 +20322,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -20428,7 +20432,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>123</v>
       </c>
@@ -20538,7 +20542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>299</v>
       </c>
@@ -20549,7 +20553,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>302</v>
       </c>
@@ -20659,7 +20663,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>305</v>
       </c>
@@ -20769,7 +20773,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>308</v>
       </c>
@@ -20879,7 +20883,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>311</v>
       </c>
@@ -20989,7 +20993,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>314</v>
       </c>
@@ -21099,7 +21103,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>317</v>
       </c>
@@ -21209,7 +21213,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>320</v>
       </c>
@@ -21319,7 +21323,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>323</v>
       </c>
@@ -21429,7 +21433,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>124</v>
       </c>
@@ -21539,7 +21543,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>328</v>
       </c>
@@ -21649,7 +21653,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>331</v>
       </c>
@@ -21759,7 +21763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -21885,13 +21889,13 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -22020,7 +22024,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -22149,7 +22153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -22278,7 +22282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -22407,7 +22411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -22536,7 +22540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -22665,7 +22669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -22794,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
@@ -22939,9 +22943,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -23039,27 +23043,27 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>176</v>
       </c>
@@ -23166,7 +23170,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>339</v>
       </c>
@@ -23174,7 +23178,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>182</v>
       </c>
@@ -23182,7 +23186,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -23292,7 +23296,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -23402,7 +23406,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -23512,7 +23516,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -23520,7 +23524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -23630,7 +23634,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -23740,7 +23744,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -23850,7 +23854,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -23960,7 +23964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -24070,7 +24074,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -24180,7 +24184,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>214</v>
       </c>
@@ -24290,7 +24294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>217</v>
       </c>
@@ -24400,7 +24404,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>220</v>
       </c>
@@ -24510,7 +24514,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -24620,7 +24624,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -24730,7 +24734,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>229</v>
       </c>
@@ -24840,7 +24844,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -24950,7 +24954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -25060,7 +25064,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>237</v>
       </c>
@@ -25170,7 +25174,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -25280,7 +25284,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>359</v>
       </c>
@@ -25288,7 +25292,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -25296,7 +25300,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -25406,7 +25410,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -25516,7 +25520,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>253</v>
       </c>
@@ -25626,7 +25630,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>256</v>
       </c>
@@ -25634,7 +25638,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -25744,7 +25748,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>199</v>
       </c>
@@ -25854,7 +25858,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>202</v>
       </c>
@@ -25964,7 +25968,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -26074,7 +26078,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>208</v>
       </c>
@@ -26184,7 +26188,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>211</v>
       </c>
@@ -26294,7 +26298,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -26404,7 +26408,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>217</v>
       </c>
@@ -26514,7 +26518,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>220</v>
       </c>
@@ -26624,7 +26628,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>223</v>
       </c>
@@ -26734,7 +26738,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>226</v>
       </c>
@@ -26844,7 +26848,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>229</v>
       </c>
@@ -26954,7 +26958,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>231</v>
       </c>
@@ -27064,7 +27068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>234</v>
       </c>
@@ -27174,7 +27178,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -27284,7 +27288,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -27394,7 +27398,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -27521,9 +27525,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -27621,27 +27625,27 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>176</v>
       </c>
@@ -27748,7 +27752,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -27756,7 +27760,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>429</v>
       </c>
@@ -27764,7 +27768,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>430</v>
       </c>
@@ -27772,7 +27776,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>431</v>
       </c>
@@ -27882,7 +27886,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>433</v>
       </c>
@@ -27992,7 +27996,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>435</v>
       </c>
@@ -28102,7 +28106,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>437</v>
       </c>
@@ -28212,7 +28216,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>439</v>
       </c>
@@ -28322,7 +28326,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>311</v>
       </c>
@@ -28432,7 +28436,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>442</v>
       </c>
@@ -28542,7 +28546,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>444</v>
       </c>
@@ -28652,7 +28656,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>323</v>
       </c>
@@ -28762,7 +28766,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>447</v>
       </c>
@@ -28872,7 +28876,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>449</v>
       </c>
@@ -28880,7 +28884,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>431</v>
       </c>
@@ -28990,7 +28994,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>433</v>
       </c>
@@ -29100,7 +29104,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>435</v>
       </c>
@@ -29210,7 +29214,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>437</v>
       </c>
@@ -29320,7 +29324,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>439</v>
       </c>
@@ -29430,7 +29434,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>311</v>
       </c>
@@ -29540,7 +29544,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>442</v>
       </c>
@@ -29650,7 +29654,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>444</v>
       </c>
@@ -29760,7 +29764,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -29870,7 +29874,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>459</v>
       </c>
@@ -29980,7 +29984,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>461</v>
       </c>
@@ -29988,7 +29992,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>431</v>
       </c>
@@ -30098,7 +30102,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>433</v>
       </c>
@@ -30208,7 +30212,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>435</v>
       </c>
@@ -30318,7 +30322,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>437</v>
       </c>
@@ -30428,7 +30432,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>439</v>
       </c>
@@ -30538,7 +30542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>311</v>
       </c>
@@ -30648,7 +30652,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>442</v>
       </c>
@@ -30758,7 +30762,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>444</v>
       </c>
@@ -30868,7 +30872,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>323</v>
       </c>
@@ -30978,7 +30982,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>471</v>
       </c>
@@ -31088,7 +31092,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>473</v>
       </c>
@@ -31198,7 +31202,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>475</v>
       </c>
@@ -31206,7 +31210,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>430</v>
       </c>
@@ -31214,7 +31218,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>431</v>
       </c>
@@ -31324,7 +31328,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>433</v>
       </c>
@@ -31434,7 +31438,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>435</v>
       </c>
@@ -31544,7 +31548,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -31654,7 +31658,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>439</v>
       </c>
@@ -31764,7 +31768,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>311</v>
       </c>
@@ -31874,7 +31878,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>442</v>
       </c>
@@ -31984,7 +31988,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>444</v>
       </c>
@@ -32094,7 +32098,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>323</v>
       </c>
@@ -32204,7 +32208,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>447</v>
       </c>
@@ -32314,7 +32318,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>449</v>
       </c>
@@ -32322,7 +32326,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>431</v>
       </c>
@@ -32432,7 +32436,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>433</v>
       </c>
@@ -32542,7 +32546,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>435</v>
       </c>
@@ -32652,7 +32656,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>437</v>
       </c>
@@ -32762,7 +32766,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>439</v>
       </c>
@@ -32872,7 +32876,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>311</v>
       </c>
@@ -32982,7 +32986,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>442</v>
       </c>
@@ -33092,7 +33096,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>444</v>
       </c>
@@ -33202,7 +33206,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>323</v>
       </c>
@@ -33312,7 +33316,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>459</v>
       </c>
@@ -33422,7 +33426,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>461</v>
       </c>
@@ -33430,7 +33434,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>431</v>
       </c>
@@ -33540,7 +33544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>433</v>
       </c>
@@ -33650,7 +33654,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>435</v>
       </c>
@@ -33760,7 +33764,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>437</v>
       </c>
@@ -33870,7 +33874,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>439</v>
       </c>
@@ -33980,7 +33984,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>311</v>
       </c>
@@ -34090,7 +34094,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>442</v>
       </c>
@@ -34200,7 +34204,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>444</v>
       </c>
@@ -34310,7 +34314,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>323</v>
       </c>
@@ -34420,7 +34424,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>471</v>
       </c>
@@ -34530,7 +34534,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>430</v>
       </c>
@@ -34541,7 +34545,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -34651,7 +34655,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>433</v>
       </c>
@@ -34761,7 +34765,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>435</v>
       </c>
@@ -34871,7 +34875,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>437</v>
       </c>
@@ -34981,7 +34985,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>439</v>
       </c>
@@ -35091,7 +35095,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>311</v>
       </c>
@@ -35201,7 +35205,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>442</v>
       </c>
@@ -35311,7 +35315,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>444</v>
       </c>
@@ -35421,7 +35425,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>323</v>
       </c>
@@ -35531,7 +35535,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>516</v>
       </c>
@@ -35641,7 +35645,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>518</v>
       </c>
@@ -35649,7 +35653,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>430</v>
       </c>
@@ -35657,7 +35661,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>431</v>
       </c>
@@ -35767,7 +35771,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>433</v>
       </c>
@@ -35877,7 +35881,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>435</v>
       </c>
@@ -35987,7 +35991,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>437</v>
       </c>
@@ -36097,7 +36101,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>439</v>
       </c>
@@ -36207,7 +36211,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -36317,7 +36321,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>442</v>
       </c>
@@ -36427,7 +36431,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>444</v>
       </c>
@@ -36537,7 +36541,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>323</v>
       </c>
@@ -36647,7 +36651,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>528</v>
       </c>
@@ -36754,7 +36758,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>449</v>
       </c>
@@ -36762,7 +36766,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>431</v>
       </c>
@@ -36872,7 +36876,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>433</v>
       </c>
@@ -36982,7 +36986,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>435</v>
       </c>
@@ -37092,7 +37096,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>437</v>
       </c>
@@ -37202,7 +37206,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>439</v>
       </c>
@@ -37312,7 +37316,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>311</v>
       </c>
@@ -37422,7 +37426,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>442</v>
       </c>
@@ -37532,7 +37536,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>444</v>
       </c>
@@ -37642,7 +37646,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>323</v>
       </c>
@@ -37752,7 +37756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>539</v>
       </c>
@@ -37859,7 +37863,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>461</v>
       </c>
@@ -37867,7 +37871,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>431</v>
       </c>
@@ -37977,7 +37981,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>433</v>
       </c>
@@ -38087,7 +38091,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>435</v>
       </c>
@@ -38197,7 +38201,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>437</v>
       </c>
@@ -38307,7 +38311,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>439</v>
       </c>
@@ -38417,7 +38421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>311</v>
       </c>
@@ -38527,7 +38531,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>442</v>
       </c>
@@ -38637,7 +38641,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>444</v>
       </c>
@@ -38747,7 +38751,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>323</v>
       </c>
@@ -38857,7 +38861,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>550</v>
       </c>
@@ -38964,7 +38968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>552</v>
       </c>
@@ -39071,7 +39075,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>554</v>
       </c>
@@ -39079,7 +39083,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>430</v>
       </c>
@@ -39087,7 +39091,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>431</v>
       </c>
@@ -39197,7 +39201,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>433</v>
       </c>
@@ -39307,7 +39311,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -39417,7 +39421,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>437</v>
       </c>
@@ -39527,7 +39531,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>439</v>
       </c>
@@ -39637,7 +39641,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>311</v>
       </c>
@@ -39747,7 +39751,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>442</v>
       </c>
@@ -39857,7 +39861,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>444</v>
       </c>
@@ -39967,7 +39971,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>323</v>
       </c>
@@ -40077,7 +40081,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>447</v>
       </c>
@@ -40187,7 +40191,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>449</v>
       </c>
@@ -40195,7 +40199,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>431</v>
       </c>
@@ -40305,7 +40309,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>433</v>
       </c>
@@ -40415,7 +40419,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>435</v>
       </c>
@@ -40525,7 +40529,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>437</v>
       </c>
@@ -40635,7 +40639,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>439</v>
       </c>
@@ -40745,7 +40749,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>311</v>
       </c>
@@ -40855,7 +40859,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>442</v>
       </c>
@@ -40965,7 +40969,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>444</v>
       </c>
@@ -41075,7 +41079,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>323</v>
       </c>
@@ -41185,7 +41189,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>459</v>
       </c>
@@ -41295,7 +41299,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>461</v>
       </c>
@@ -41303,7 +41307,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>431</v>
       </c>
@@ -41413,7 +41417,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>433</v>
       </c>
@@ -41523,7 +41527,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>435</v>
       </c>
@@ -41633,7 +41637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>437</v>
       </c>
@@ -41743,7 +41747,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>439</v>
       </c>
@@ -41853,7 +41857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>311</v>
       </c>
@@ -41963,7 +41967,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>442</v>
       </c>
@@ -42073,7 +42077,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>444</v>
       </c>
@@ -42183,7 +42187,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>323</v>
       </c>
@@ -42293,7 +42297,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>471</v>
       </c>
@@ -42403,7 +42407,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -42513,7 +42517,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>42</v>
       </c>
@@ -42521,7 +42525,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>518</v>
       </c>
@@ -42529,7 +42533,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>430</v>
       </c>
@@ -42537,7 +42541,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>431</v>
       </c>
@@ -42647,7 +42651,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>433</v>
       </c>
@@ -42757,7 +42761,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>435</v>
       </c>
@@ -42867,7 +42871,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>437</v>
       </c>
@@ -42977,7 +42981,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>439</v>
       </c>
@@ -43087,7 +43091,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>311</v>
       </c>
@@ -43197,7 +43201,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>442</v>
       </c>
@@ -43307,7 +43311,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>444</v>
       </c>
@@ -43417,7 +43421,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>323</v>
       </c>
@@ -43527,7 +43531,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>528</v>
       </c>
@@ -43634,7 +43638,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>449</v>
       </c>
@@ -43642,7 +43646,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>431</v>
       </c>
@@ -43752,7 +43756,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>433</v>
       </c>
@@ -43862,7 +43866,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>435</v>
       </c>
@@ -43972,7 +43976,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>437</v>
       </c>
@@ -44082,7 +44086,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>439</v>
       </c>
@@ -44192,7 +44196,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>311</v>
       </c>
@@ -44302,7 +44306,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>442</v>
       </c>
@@ -44412,7 +44416,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>444</v>
       </c>
@@ -44522,7 +44526,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>323</v>
       </c>
@@ -44632,7 +44636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>539</v>
       </c>
@@ -44739,7 +44743,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>461</v>
       </c>
@@ -44747,7 +44751,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>431</v>
       </c>
@@ -44857,7 +44861,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>433</v>
       </c>
@@ -44967,7 +44971,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>435</v>
       </c>
@@ -45077,7 +45081,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>437</v>
       </c>
@@ -45187,7 +45191,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>439</v>
       </c>
@@ -45297,7 +45301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>311</v>
       </c>
@@ -45407,7 +45411,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>442</v>
       </c>
@@ -45517,7 +45521,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>444</v>
       </c>
@@ -45627,7 +45631,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>323</v>
       </c>
@@ -45737,7 +45741,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>550</v>
       </c>
@@ -45844,7 +45848,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>552</v>
       </c>
@@ -45951,7 +45955,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>617</v>
       </c>
@@ -45959,7 +45963,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>430</v>
       </c>
@@ -45967,7 +45971,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>431</v>
       </c>
@@ -46077,7 +46081,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>433</v>
       </c>
@@ -46187,7 +46191,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>435</v>
       </c>
@@ -46297,7 +46301,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>437</v>
       </c>
@@ -46407,7 +46411,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>439</v>
       </c>
@@ -46517,7 +46521,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>311</v>
       </c>
@@ -46627,7 +46631,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>442</v>
       </c>
@@ -46737,7 +46741,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>444</v>
       </c>
@@ -46847,7 +46851,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>323</v>
       </c>
@@ -46957,7 +46961,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>447</v>
       </c>
@@ -47067,7 +47071,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>449</v>
       </c>
@@ -47075,7 +47079,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>431</v>
       </c>
@@ -47185,7 +47189,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -47295,7 +47299,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>435</v>
       </c>
@@ -47405,7 +47409,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>437</v>
       </c>
@@ -47515,7 +47519,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -47625,7 +47629,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>311</v>
       </c>
@@ -47735,7 +47739,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -47845,7 +47849,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -47955,7 +47959,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>323</v>
       </c>
@@ -48065,7 +48069,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>459</v>
       </c>
@@ -48175,7 +48179,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>461</v>
       </c>
@@ -48183,7 +48187,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>431</v>
       </c>
@@ -48293,7 +48297,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>433</v>
       </c>
@@ -48403,7 +48407,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>435</v>
       </c>
@@ -48513,7 +48517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>437</v>
       </c>
@@ -48623,7 +48627,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>439</v>
       </c>
@@ -48733,7 +48737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>311</v>
       </c>
@@ -48843,7 +48847,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>442</v>
       </c>
@@ -48953,7 +48957,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>444</v>
       </c>
@@ -49063,7 +49067,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>323</v>
       </c>
@@ -49173,7 +49177,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -49283,7 +49287,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>299</v>
       </c>
@@ -49393,7 +49397,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>41</v>
       </c>
@@ -49401,7 +49405,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>649</v>
       </c>
@@ -49511,7 +49515,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>651</v>
       </c>
@@ -49621,7 +49625,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>653</v>
       </c>
@@ -49629,7 +49633,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>654</v>
       </c>
@@ -49739,7 +49743,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>656</v>
       </c>
@@ -49849,7 +49853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>658</v>
       </c>
@@ -49959,7 +49963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>660</v>
       </c>
@@ -50069,7 +50073,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>40</v>
       </c>
@@ -50077,7 +50081,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>662</v>
       </c>
@@ -50187,7 +50191,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>651</v>
       </c>
@@ -50297,7 +50301,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>653</v>
       </c>
@@ -50305,7 +50309,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>654</v>
       </c>
@@ -50415,7 +50419,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>656</v>
       </c>
@@ -50525,7 +50529,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>658</v>
       </c>
@@ -50635,7 +50639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>660</v>
       </c>
@@ -50745,7 +50749,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>39</v>
       </c>
@@ -50753,7 +50757,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>669</v>
       </c>
@@ -50863,7 +50867,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>671</v>
       </c>
@@ -50973,7 +50977,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>673</v>
       </c>
@@ -51083,7 +51087,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>653</v>
       </c>
@@ -51091,7 +51095,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>654</v>
       </c>
@@ -51201,7 +51205,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>656</v>
       </c>
@@ -51311,7 +51315,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>658</v>
       </c>
@@ -51421,7 +51425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>660</v>
       </c>
@@ -51545,18 +51549,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>134</v>
       </c>
@@ -51582,7 +51586,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -51609,7 +51613,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -51637,7 +51641,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -51663,7 +51667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -51689,7 +51693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -51715,7 +51719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -51741,11 +51745,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -51767,19 +51771,19 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>134</v>
       </c>
@@ -51805,7 +51809,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -51833,7 +51837,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -51860,7 +51864,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -51886,7 +51890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -51912,7 +51916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -51938,7 +51942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -51964,7 +51968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -51986,147 +51990,147 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F34" s="15">
         <v>2019</v>
       </c>
@@ -52164,7 +52168,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>160</v>
       </c>
@@ -52205,7 +52209,7 @@
         <v>0.22875437203838925</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
         <v>159</v>
       </c>
@@ -52247,7 +52251,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
@@ -52262,53 +52266,53 @@
       <c r="P37" s="43"/>
       <c r="Q37" s="43"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="22">
         <f>Data!D51</f>
         <v>0.75216927859794647</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>152</v>
       </c>
@@ -52331,20 +52335,20 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
-    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="9.1640625" style="15"/>
+    <col min="8" max="9" width="9.1640625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>106</v>
       </c>
@@ -52363,7 +52367,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>107</v>
       </c>
@@ -52380,7 +52384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>108</v>
       </c>
@@ -52397,7 +52401,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>109</v>
       </c>
@@ -52414,12 +52418,12 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -52433,7 +52437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -52447,7 +52451,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
@@ -52465,7 +52469,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -52496,7 +52500,7 @@
         <v>2021</v>
       </c>
       <c r="K9" s="28">
-        <f t="shared" ref="K9:AN9" si="0">J9+1</f>
+        <f t="shared" ref="K9:AM9" si="0">J9+1</f>
         <v>2022</v>
       </c>
       <c r="L9" s="28">
@@ -52613,7 +52617,7 @@
       </c>
       <c r="AN9" s="28"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C10" s="15" t="s">
         <v>3</v>
       </c>
@@ -52631,7 +52635,7 @@
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="29">
-        <f t="shared" ref="I9:I40" si="1">D9</f>
+        <f t="shared" ref="I10:I40" si="1">D9</f>
         <v>1.0837883285483643E-2</v>
       </c>
       <c r="J10" s="15">
@@ -52755,7 +52759,7 @@
         <v>0.7994112623063595</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C11" s="15" t="s">
         <v>4</v>
       </c>
@@ -52895,7 +52899,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C12" s="15" t="s">
         <v>5</v>
       </c>
@@ -53037,7 +53041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C13" s="15" t="s">
         <v>6</v>
       </c>
@@ -53179,7 +53183,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C14" s="15" t="s">
         <v>128</v>
       </c>
@@ -53321,7 +53325,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32" t="s">
@@ -53465,7 +53469,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>13</v>
       </c>
@@ -53613,7 +53617,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
         <v>3</v>
       </c>
@@ -53754,7 +53758,7 @@
         <v>0.79132952109742016</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C18" s="15" t="s">
         <v>4</v>
       </c>
@@ -53894,7 +53898,7 @@
         <v>1.2353695258898109E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>5</v>
       </c>
@@ -54034,7 +54038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
         <v>6</v>
       </c>
@@ -54176,7 +54180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C21" s="15" t="s">
         <v>128</v>
       </c>
@@ -54318,7 +54322,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32" t="s">
@@ -54462,7 +54466,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>14</v>
       </c>
@@ -54609,7 +54613,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
@@ -54751,7 +54755,7 @@
         <v>0.79121379676466685</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C25" s="15" t="s">
         <v>4</v>
       </c>
@@ -54893,7 +54897,7 @@
         <v>5.3346659504360135E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C26" s="15" t="s">
         <v>5</v>
       </c>
@@ -55033,7 +55037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
         <v>6</v>
       </c>
@@ -55175,7 +55179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C28" s="15" t="s">
         <v>128</v>
       </c>
@@ -55317,7 +55321,7 @@
         <v>2.7297336546034365E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
@@ -55461,7 +55465,7 @@
         <v>8.4902443450214804E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
@@ -55609,7 +55613,7 @@
         <v>8.3813770410315749E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C31" s="15" t="s">
         <v>3</v>
       </c>
@@ -55751,7 +55755,7 @@
         <v>1.2075948644314414E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C32" s="15" t="s">
         <v>4</v>
       </c>
@@ -55891,7 +55895,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C33" s="15" t="s">
         <v>5</v>
       </c>
@@ -56031,7 +56035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C34" s="15" t="s">
         <v>6</v>
       </c>
@@ -56173,7 +56177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C35" s="15" t="s">
         <v>128</v>
       </c>
@@ -56315,7 +56319,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32" t="s">
@@ -56459,7 +56463,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>15</v>
       </c>
@@ -56605,7 +56609,7 @@
         <v>6.0993535806083471E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C38" s="15" t="s">
         <v>3</v>
       </c>
@@ -56745,7 +56749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C39" s="15" t="s">
         <v>4</v>
       </c>
@@ -56885,7 +56889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="C40" s="15" t="s">
         <v>5</v>
@@ -57026,7 +57030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="C41" s="15" t="s">
         <v>6</v>
@@ -57167,7 +57171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="C42" s="15" t="s">
         <v>128</v>
@@ -57308,7 +57312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32" t="s">
@@ -57450,7 +57454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="31" t="s">
         <v>15</v>
       </c>
@@ -57596,7 +57600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C45" s="15" t="s">
         <v>3</v>
       </c>
@@ -57736,7 +57740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C46" s="15" t="s">
         <v>4</v>
       </c>
@@ -57876,7 +57880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C47" s="15" t="s">
         <v>5</v>
       </c>
@@ -58016,7 +58020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C48" s="15" t="s">
         <v>6</v>
       </c>
@@ -58156,7 +58160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C49" s="15" t="s">
         <v>128</v>
       </c>
@@ -58296,7 +58300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
@@ -58438,7 +58442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>16</v>
       </c>
@@ -58586,7 +58590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C52" s="15" t="s">
         <v>3</v>
       </c>
@@ -58726,7 +58730,7 @@
         <v>0.75216927859794647</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C53" s="15" t="s">
         <v>4</v>
       </c>
@@ -58866,7 +58870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C54" s="15" t="s">
         <v>5</v>
       </c>
@@ -59008,7 +59012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="C55" s="15" t="s">
         <v>6</v>
@@ -59149,7 +59153,7 @@
         <v>0.24783072140205353</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="C56" s="15" t="s">
         <v>128</v>
@@ -59290,7 +59294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32" t="s">
@@ -59432,7 +59436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="31" t="s">
         <v>16</v>
       </c>
@@ -59578,7 +59582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
       <c r="C59" s="15" t="s">
         <v>3</v>
@@ -59719,7 +59723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="C60" s="15" t="s">
         <v>4</v>
@@ -59860,7 +59864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C61" s="15" t="s">
         <v>5</v>
       </c>
@@ -60000,7 +60004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C62" s="15" t="s">
         <v>6</v>
       </c>
@@ -60140,7 +60144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C63" s="15" t="s">
         <v>128</v>
       </c>
@@ -60280,7 +60284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32" t="s">
@@ -60422,7 +60426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>17</v>
       </c>
@@ -60568,7 +60572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C66" s="15" t="s">
         <v>3</v>
       </c>
@@ -60708,7 +60712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C67" s="15" t="s">
         <v>4</v>
       </c>
@@ -60849,7 +60853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C68" s="15" t="s">
         <v>5</v>
       </c>
@@ -60990,7 +60994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C69" s="15" t="s">
         <v>6</v>
       </c>
@@ -61130,7 +61134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C70" s="15" t="s">
         <v>128</v>
       </c>
@@ -61270,7 +61274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32" t="s">
@@ -61412,7 +61416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
         <v>17</v>
       </c>
@@ -61558,7 +61562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C73" s="15" t="s">
         <v>3</v>
       </c>
@@ -61698,7 +61702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C74" s="15" t="s">
         <v>4</v>
       </c>
@@ -61838,7 +61842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C75" s="15" t="s">
         <v>5</v>
       </c>
@@ -61978,7 +61982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C76" s="15" t="s">
         <v>6</v>
       </c>
@@ -62118,7 +62122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C77" s="15" t="s">
         <v>128</v>
       </c>
@@ -62258,7 +62262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
       <c r="C78" s="32" t="s">
@@ -62400,7 +62404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>18</v>
       </c>
@@ -62547,7 +62551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C80" s="15" t="s">
         <v>3</v>
       </c>
@@ -62688,7 +62692,7 @@
         <v>0.98901305736940681</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C81" s="15" t="s">
         <v>4</v>
       </c>
@@ -62828,7 +62832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C82" s="15" t="s">
         <v>5</v>
       </c>
@@ -62969,7 +62973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C83" s="15" t="s">
         <v>6</v>
       </c>
@@ -63110,7 +63114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C84" s="15" t="s">
         <v>128</v>
       </c>
@@ -63251,7 +63255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
@@ -63394,7 +63398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="s">
         <v>18</v>
       </c>
@@ -63540,7 +63544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C87" s="15" t="s">
         <v>3</v>
       </c>
@@ -63680,7 +63684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C88" s="15" t="s">
         <v>4</v>
       </c>
@@ -63820,7 +63824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C89" s="15" t="s">
         <v>5</v>
       </c>
@@ -63960,7 +63964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C90" s="15" t="s">
         <v>6</v>
       </c>
@@ -64100,7 +64104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C91" s="15" t="s">
         <v>128</v>
       </c>
@@ -64240,7 +64244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32" t="s">
@@ -64382,7 +64386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="H93" s="30"/>
       <c r="I93" s="29">
         <f t="shared" si="3"/>
@@ -64527,13 +64531,13 @@
       <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>133</v>
       </c>
@@ -64662,7 +64666,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -64791,7 +64795,7 @@
         <v>0.7994112623063595</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
@@ -64920,7 +64924,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -65049,7 +65053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
@@ -65178,7 +65182,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
@@ -65307,7 +65311,7 @@
         <v>6.4852588888836923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>128</v>
       </c>
@@ -65436,7 +65440,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>129</v>
       </c>
